--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2193.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2193.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.065456988407222</v>
+        <v>0.949892520904541</v>
       </c>
       <c r="B1">
-        <v>1.953263180223556</v>
+        <v>1.611510396003723</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.672751903533936</v>
       </c>
       <c r="D1">
-        <v>1.857153985949593</v>
+        <v>2.731826543807983</v>
       </c>
       <c r="E1">
-        <v>0.9828927468971542</v>
+        <v>1.513468265533447</v>
       </c>
     </row>
   </sheetData>
